--- a/data/ODI/Classify.xlsx
+++ b/data/ODI/Classify.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyly/Desktop/VU_Master/DataMining/Data-Mining-Techniques/data/ODI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54434483-CB0E-884B-84B6-3A8201CD49C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03156B3A-69AA-BB43-9978-8965261D95A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="26560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="26560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
-    <pivotCache cacheId="9" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="12" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4135" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4145" uniqueCount="1062">
   <si>
     <t>Timestamp</t>
   </si>
@@ -3226,7 +3227,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="&quot;€&quot;#,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3241,6 +3242,11 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -3261,10 +3267,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -3279,9 +3286,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3299,7 +3308,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44294.505366435187" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="112" xr:uid="{EBCDFBB4-57A2-4A42-9AEB-50FA6B7673C1}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="E2:E114" sheet="Sheet1"/>
+    <worksheetSource ref="E1:E113" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="1">
     <cacheField name="What programme are you in?" numFmtId="0">
@@ -3428,9 +3437,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44294.506465393519" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="313" xr:uid="{22DC7EDC-BBB8-B94C-80CB-6A1979B983C0}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44294.512147569447" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="313" xr:uid="{22DC7EDC-BBB8-B94C-80CB-6A1979B983C0}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:B315" sheet="Sheet1"/>
+    <worksheetSource ref="A1:B314" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="What programme are you in?" numFmtId="0">
@@ -3438,13 +3447,13 @@
     </cacheField>
     <cacheField name="Class" numFmtId="0">
       <sharedItems count="7">
+        <s v="Other"/>
         <s v="AI"/>
         <s v="CS"/>
         <s v="FIN "/>
+        <s v="BIO"/>
         <s v="BUS"/>
         <s v="ECO"/>
-        <s v="BIO"/>
-        <s v="Other"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -3805,47 +3814,47 @@
   </r>
   <r>
     <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="DMT"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="DMT"/>
+    <s v="CS"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="AI"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="CS"/>
+    <s v="system security"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Quantitative Risk Management"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Computational Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="AI"/>
     <x v="1"/>
   </r>
   <r>
     <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="system security"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Computational Science"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Quantitative Risk Management"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Computational Science"/>
-    <x v="3"/>
-  </r>
-  <r>
     <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Computational Science"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="big data engineering "/>
@@ -3853,7 +3862,7 @@
   </r>
   <r>
     <s v="MSc in Bioinformatics and Systems Biology"/>
-    <x v="2"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="Human Language Technology"/>
@@ -3861,47 +3870,47 @@
   </r>
   <r>
     <s v="Artificial Intelligence"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Computational Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="MSc Artificial Intelligence"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="QRM"/>
     <x v="3"/>
   </r>
   <r>
+    <s v="Master Business Analytics"/>
+    <x v="5"/>
+  </r>
+  <r>
     <s v="MSc Artificial Intelligence"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="QRM"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Computational Science"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Master Business Analytics"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="MSc Artificial Intelligence"/>
-    <x v="0"/>
+    <s v="CS"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="Computational Science"/>
-    <x v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="CS"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="AI Masters"/>
     <x v="1"/>
-  </r>
-  <r>
-    <s v="Computational Science"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="CS"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AI Masters"/>
-    <x v="0"/>
   </r>
   <r>
     <s v="Linguistics: Text Mining"/>
@@ -3909,43 +3918,43 @@
   </r>
   <r>
     <s v="Bioinformatics and Systems Biology"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="BA"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Master Bioinformatics &amp; Systems Biology"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Master in Computational Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Python"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="BA"/>
+    <s v="Msc Econometrics and Operations Research"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Computational Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Computational Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Computational Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="rMA Human Language Technology"/>
     <x v="0"/>
-  </r>
-  <r>
-    <s v="Master Bioinformatics &amp; Systems Biology"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Master in Computational Science"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Python"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Msc Econometrics and Operations Research"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Computational Science"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Computational Science"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Computational Science"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="rMA Human Language Technology"/>
-    <x v="2"/>
   </r>
   <r>
     <s v="Human Language Technology (Research Master Linguistics)"/>
@@ -3953,43 +3962,43 @@
   </r>
   <r>
     <s v="Econometrics and Operations Research"/>
-    <x v="4"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Econometrics &amp; Data Science"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="MSc Artificial Intelligence"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="MSc Artificial Intelligence"/>
-    <x v="0"/>
-  </r>
-  <r>
     <s v="Econometrics and Operation Research"/>
-    <x v="4"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Econometrics &amp; Operations Research"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="QRM"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="MSc Artificial Intelligence @UvA"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="QRM"/>
+    <s v="Business Analytics"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Artificial Intelligence"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="CS"/>
     <x v="2"/>
-  </r>
-  <r>
-    <s v="MSc Artificial Intelligence @UvA"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Business Analytics"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Artificial Intelligence"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="CS"/>
-    <x v="1"/>
   </r>
   <r>
     <s v="Linguistics Text Mining "/>
@@ -3997,107 +4006,107 @@
   </r>
   <r>
     <s v="Econometrics"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="EDS"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Econometrics"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="AI"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="EDS"/>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="BA"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="Econometrics"/>
+    <s v="Finance &amp; Technology"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Bioinformatics and Systems Biology"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Master Artificial Intelligence"/>
     <x v="1"/>
   </r>
   <r>
+    <s v="Quantitative Risk Management "/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Quantitative Risk Management "/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Econometrics &amp; Operation Research master"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="QRM"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="CS"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="M AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="OR"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Master Bioinformatics &amp; Systems Biology"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Finance and technology"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="BA"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Econometrics &amp; Operations Research"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Climate econometrics"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="CS"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Duisenberg Honours: QRM"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="BA"/>
+    <x v="5"/>
+  </r>
+  <r>
     <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="BA"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Finance &amp; Technology"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Bioinformatics and Systems Biology"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Master Artificial Intelligence"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Quantitative Risk Management "/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Quantitative Risk Management "/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Econometrics &amp; Operation Research master"/>
     <x v="1"/>
-  </r>
-  <r>
-    <s v="QRM"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="CS"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="M AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="OR"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Master Bioinformatics &amp; Systems Biology"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Finance and technology"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="BA"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Econometrics &amp; Operations Research"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Climate econometrics"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="CS"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Duisenberg Honours: QRM"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="BA"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
   </r>
   <r>
     <s v="Medical Informatics"/>
@@ -4105,11 +4114,11 @@
   </r>
   <r>
     <s v="Master Artificial Intelligence"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Business analytics "/>
-    <x v="3"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="Mathematics"/>
@@ -4117,135 +4126,135 @@
   </r>
   <r>
     <s v="Business Analytics"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="BA"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Research Masters Human Language Technology"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="BA"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Finance and Technology"/>
     <x v="3"/>
   </r>
   <r>
+    <s v="Artificial intelligence"/>
+    <x v="1"/>
+  </r>
+  <r>
     <s v="BA"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Computational Sciences"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Econometrics and data science "/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Master in Computational Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="BA"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Computational Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Artificial intelligence"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Computational Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Msc AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="ai"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Artificial Intelligence MSc"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="BA"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="QRM"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Msc. Finance and Technology"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Business Analytics"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Econometrics"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="CS"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="bioinformatics and system biology"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="QRM"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Bioinformatics and Systems Biology"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="CS"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Research Master Human Movement Sciences (FGB)"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Research Masters Human Language Technology"/>
+    <s v="computational science"/>
     <x v="2"/>
-  </r>
-  <r>
-    <s v="BA"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Finance and Technology"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Artificial intelligence"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="BA"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Computational Sciences"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Econometrics and data science "/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Master in Computational Science"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="BA"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Computational Science"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Artificial intelligence"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Computational Science"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Msc AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="ai"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Artificial Intelligence MSc"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="BA"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="QRM"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Msc. Finance and Technology"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Business Analytics"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Econometrics"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="CS"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="bioinformatics and system biology"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="QRM"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Bioinformatics and Systems Biology"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="CS"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Research Master Human Movement Sciences (FGB)"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="computational science"/>
-    <x v="3"/>
   </r>
   <r>
     <s v="Mathematics"/>
@@ -4253,27 +4262,27 @@
   </r>
   <r>
     <s v="BA"/>
-    <x v="0"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="Master Artificial Intelligence"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="CS"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Master Finance &amp; Technology"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Artificial Intelligence"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Master Finance &amp; Technology"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Artificial Intelligence"/>
-    <x v="0"/>
-  </r>
-  <r>
     <s v="Master Information Studies UvA"/>
-    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="Medical Informatics"/>
@@ -4281,259 +4290,259 @@
   </r>
   <r>
     <s v="Econometrics "/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="MSc Artificial Intelligence"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="MSc Artificial Intelligence"/>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="CS"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Msc Computer Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Honours master F&amp;T"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="CS"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Duisenberg Honours Programme in Finance and Technology"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Master bioinformatics and systems biology"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Business Analytics "/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Business Analytics"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Business Analytics"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="CLS"/>
     <x v="0"/>
   </r>
   <r>
+    <s v="Master Artificial Intelligence"/>
+    <x v="1"/>
+  </r>
+  <r>
     <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="CS"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Econometrics "/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Computer Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Business Administration"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Artificial Intelligence Masters"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Msc AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="RM AI, RM Cognitive Neuropsychology"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="RMA Human Language Technology"/>
     <x v="0"/>
   </r>
   <r>
+    <s v="BA"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Bioinformatics"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Computational Sciences "/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="MSc Stochastics and Financial Mathematics"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="AI (uva)"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Computational Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="MSc AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Econometrics "/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Econometrics and data science"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Masters of Artificial Intelligence"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Master Artificial Intelligence: Cognitive Sciences "/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Artificial Intelligence"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Data science"/>
+    <x v="2"/>
+  </r>
+  <r>
     <s v="CS"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="M Information Sciences"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Business Analytics"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="AI"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Msc Computer Science"/>
+    <s v="Computational Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Artificial Intelligence"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="BA"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="MSc Econometrics and Operation Research"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Information sciences"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Information Studies (Data Science) @ UvA"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Computer Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Econometrics and Operations Research "/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Bioinfromatics"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Econometrics and Operations Research "/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="E&amp;OR"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="CLS"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Honours master F&amp;T"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="CS"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Duisenberg Honours Programme in Finance and Technology"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Master bioinformatics and systems biology"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Business Analytics "/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Business Analytics"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Business Analytics"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="CLS"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Master Artificial Intelligence"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="CS"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Econometrics "/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Computer Science"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Business Administration"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Artificial Intelligence Masters"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Msc AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="RM AI, RM Cognitive Neuropsychology"/>
+    <s v="Econometrics &amp; Data Science"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Bioinformatics &amp; Systems biology"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Computational Science"/>
     <x v="2"/>
-  </r>
-  <r>
-    <s v="RMA Human Language Technology"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="BA"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Bioinformatics"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Computational Sciences "/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="MSc Stochastics and Financial Mathematics"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="AI (uva)"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Computational Science"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="MSc AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Econometrics "/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Econometrics and data science"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Masters of Artificial Intelligence"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Master Artificial Intelligence: Cognitive Sciences "/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Artificial Intelligence"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Data science"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="CS"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="M Information Sciences"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Business Analytics"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Computational Science"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Artificial Intelligence"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="BA"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="MSc Econometrics and Operation Research"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Information sciences"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Information Studies (Data Science) @ UvA"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Computer Science"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Econometrics and Operations Research "/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Bioinfromatics"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Econometrics and Operations Research "/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="E&amp;OR"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="CLS"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Econometrics &amp; Data Science"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Bioinformatics &amp; Systems biology"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Computational Science"/>
-    <x v="3"/>
   </r>
   <r>
     <s v="Management, Policy-Analysis and Entrepreneurship in Health &amp; Life sciences"/>
@@ -4541,179 +4550,179 @@
   </r>
   <r>
     <s v="Econometrics"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Computer Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Finance and Technology"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="AI"/>
     <x v="1"/>
   </r>
   <r>
+    <s v="Computational Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Computational Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="computational science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="EOR"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Computational Science UvA/VU"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Bioinformatics"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Computational Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="MSc Bioinformatics &amp; Systems Biology"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Computational Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Computational Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Artificial Intelligence"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="HLT"/>
+    <x v="0"/>
+  </r>
+  <r>
     <s v="Computer Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Artificial Intellingence"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Finance and Technology"/>
+    <s v="Artificial Intelligence"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Data Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Bioinformatics and Systems Biology"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Information studies Data Science (UvA)"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Computational Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Master Artificial Intelligence"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Computational Sciences"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="BA"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="AI"/>
-    <x v="0"/>
+    <s v="Business Analytics"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Business Analytics"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Computer Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Artificial Intelligence"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Computational Science"/>
-    <x v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Artificial Intelligence"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Business Analytics"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Computer Science"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="Computational Science"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="computational science"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="EOR"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Computer Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Business Analytics"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="Computational Science UvA/VU"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Bioinformatics"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Computational Science"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="MSc Bioinformatics &amp; Systems Biology"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Computational Science"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Computational Science"/>
-    <x v="3"/>
+    <s v="Econometrics and Data Science"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Bioinformatics and systems biology"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="Artificial Intelligence"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="HLT"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Computer Science"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Artificial Intellingence"/>
-    <x v="0"/>
+    <s v="Information Studies: Data Science (track)"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Bioinformatics "/>
+    <x v="4"/>
   </r>
   <r>
     <s v="Artificial Intelligence"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Data Science"/>
     <x v="1"/>
-  </r>
-  <r>
-    <s v="Bioinformatics and Systems Biology"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Information studies Data Science (UvA)"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Computational Science"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Master Artificial Intelligence"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Computational Sciences"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="BA"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Business Analytics"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Business Analytics"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Computer Science"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Artificial Intelligence"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Computational Science"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Artificial Intelligence"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Business Analytics"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Computer Science"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Computational Science"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Computer Science"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Business Analytics"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Econometrics and Data Science"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Bioinformatics and systems biology"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Artificial Intelligence"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Information Studies: Data Science (track)"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Bioinformatics "/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Artificial Intelligence"/>
-    <x v="0"/>
   </r>
   <r>
     <s v="https://forms.gle/eTy4nEs3khRqPtMLA"/>
@@ -4721,207 +4730,207 @@
   </r>
   <r>
     <s v="Data Science (information studies)"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Business Analytics"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Computational Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Business Analytics"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Artificial Intelligence  "/>
     <x v="1"/>
   </r>
   <r>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Bioinformatics"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Bioinformatics"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="MSc Finance - Duisenberg Honours Programme of Quantitative Risk Management"/>
+    <x v="3"/>
+  </r>
+  <r>
     <s v="Business Analytics"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Business Analytics"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="QRM"/>
     <x v="3"/>
   </r>
   <r>
+    <s v="Econometrics and Data Science"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="artificial intelligence"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="BA"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Bioinformatics"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Finance and Technology"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Bioinformatics"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Bioinformatics &amp; Systems Biology"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="CS"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Econometrics &amp; Operations Research "/>
+    <x v="6"/>
+  </r>
+  <r>
     <s v="Computational Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="BA"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Master Bioinformatics and Systems Biology"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Ai"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="MSc Bioinformatics and systems biology"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Business Analytics"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Computer Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Quantative Risk Management"/>
     <x v="3"/>
   </r>
   <r>
+    <s v="Computational Science"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Artificial Intelligence"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Msc Artificial Intelligence "/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Finance and Technology"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="MSc Ai"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
     <s v="Business Analytics"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Artificial Intelligence  "/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Artificial Intelligence"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Bioinformatics and systems biology "/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="AI: cognitive science track"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Artificial Intelligence"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Bioinformatics and systems biology "/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Ai"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Bioinformatics"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Bioinformatics"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="MSc Finance - Duisenberg Honours Programme of Quantitative Risk Management"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Business Analytics"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Business Analytics"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="QRM"/>
-    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="MSC Bioinformatics and systems Biology"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Master AI at UvA"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="M Bioinformatics and Systems Biology"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="Econometrics and Data Science"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="artificial intelligence"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="BA"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Bioinformatics"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Finance and Technology"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Bioinformatics"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Bioinformatics &amp; Systems Biology"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="CS"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Econometrics &amp; Operations Research "/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Computational Science"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="BA"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Master Bioinformatics and Systems Biology"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Ai"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="MSc Bioinformatics and systems biology"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Business Analytics"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Computer Science"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Quantative Risk Management"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Computational Science"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Artificial Intelligence"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Msc Artificial Intelligence "/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Finance and Technology"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="MSc Ai"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Business Analytics"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Artificial Intelligence"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Bioinformatics and systems biology "/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="AI: cognitive science track"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Artificial Intelligence"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Bioinformatics and systems biology "/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Ai"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Bioinformatics"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="MSC Bioinformatics and systems Biology"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Master AI at UvA"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="M Bioinformatics and Systems Biology"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Econometrics and Data Science"/>
-    <x v="4"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Je zusje"/>
@@ -4929,47 +4938,47 @@
   </r>
   <r>
     <s v="EDS"/>
-    <x v="5"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Artificial Intelligence"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="QRM"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Bioinformatics and systems biology "/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Artificial Intelligence"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Econometrics"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="CS: Big Data"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Bioinformatics and systems biology "/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Artificial Intelligence"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Econometrics"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="CS: Big Data"/>
-    <x v="1"/>
-  </r>
-  <r>
     <s v="Information Studies: Data Science"/>
-    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="Bioinformatics and Systems Biology "/>
-    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="Master Econometrics and Operations Research: Data Science track"/>
-    <x v="0"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Data Science track (UvA)"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="Mathematics"/>
@@ -4977,51 +4986,51 @@
   </r>
   <r>
     <s v="Econometrics and Operations Research"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="MSc AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="QRM"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Master Artificial Intelligence"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Bioinformatics "/>
     <x v="4"/>
   </r>
   <r>
-    <s v="MSc AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="QRM"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Master Artificial Intelligence"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Bioinformatics "/>
-    <x v="0"/>
-  </r>
-  <r>
     <s v="Business Analytics &amp; AI"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Climate Econometrics"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Econometrics and Data Science"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Econometrics and data science"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="AI"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="MSc Finance"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="Climate Econometrics"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Econometrics and Data Science"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Econometrics and data science"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="AI"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="MSc Finance"/>
-    <x v="0"/>
-  </r>
-  <r>
     <s v="MSc: Artificial Intelligence"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="MSc Information studies"/>
@@ -5029,27 +5038,27 @@
   </r>
   <r>
     <s v="Bioinformatics and Systems Biology"/>
-    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="artificial intelligence"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Fintech"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Fintech"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Quantative Risk Management"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Business Analytics"/>
     <x v="5"/>
-  </r>
-  <r>
-    <s v="Fintech"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Quantative Risk Management"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Business Analytics"/>
-    <x v="3"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -5536,19 +5545,19 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1451CCE8-CFC9-1A4D-A5F7-34CBAD001ABA}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1451CCE8-CFC9-1A4D-A5F7-34CBAD001ABA}" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="3"/>
         <item x="1"/>
         <item x="4"/>
+        <item x="5"/>
         <item x="2"/>
         <item x="6"/>
+        <item x="3"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -23055,10 +23064,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97360656-8B29-9647-AEDD-C956775F6E91}">
-  <dimension ref="A2:F316"/>
+  <dimension ref="A1:F316"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -23067,138 +23076,153 @@
     <col min="5" max="5" width="65.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="str">
+        <f>VLOOKUP(A2,$E$2:$F$113,2,FALSE)</f>
+        <v>Other</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B3" t="str">
-        <f>VLOOKUP(A3,$E$2:$F$114,2)</f>
+        <f t="shared" ref="B3:B66" si="0">VLOOKUP(A3,$E$2:$F$113,2,FALSE)</f>
         <v>AI</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>1056</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" ref="B4:B67" si="0">VLOOKUP(A4,$E$2:$F$114,2)</f>
-        <v>AI</v>
+        <f t="shared" si="0"/>
+        <v>Other</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>CS</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>1056</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>CS</v>
+        <v>AI</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>Other</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">FIN </v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>1057</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">FIN </v>
+        <v>CS</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>AI</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -23210,37 +23234,37 @@
         <v>AI</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>1056</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>AI</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
         <v>27</v>
@@ -23248,179 +23272,179 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>Other</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>BIO</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">FIN </v>
+        <v>Other</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="F16" t="s">
-        <v>1054</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
         <v>AI</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F18" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>AI</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F19" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v xml:space="preserve">FIN </v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F20" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">FIN </v>
+        <v>BUS</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F21" t="s">
-        <v>1053</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>AI</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F23" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F24" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>CS</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F25" t="s">
         <v>1056</v>
@@ -23428,29 +23452,29 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F26" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>CS</v>
+        <v>AI</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F27" t="s">
         <v>1055</v>
@@ -23458,14 +23482,14 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>Other</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F28" t="s">
         <v>1055</v>
@@ -23473,14 +23497,14 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>BIO</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F29" t="s">
         <v>1055</v>
@@ -23488,74 +23512,74 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F30" t="s">
-        <v>1055</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>BIO</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F32" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>Other</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F33" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">FIN </v>
+        <v>ECO</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F34" t="s">
         <v>1055</v>
@@ -23563,32 +23587,32 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>BUS</v>
+        <v>CS</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="F35" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F36" t="s">
-        <v>1057</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -23597,160 +23621,160 @@
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F37" t="s">
-        <v>27</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>Other</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F38" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">FIN </v>
+        <v>Other</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F39" t="s">
-        <v>1055</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F41" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>AI</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="F42" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F43" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="F44" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>210</v>
+        <v>112</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v xml:space="preserve">FIN </v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F45" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">FIN </v>
+        <v>AI</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F46" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
         <v>BUS</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="F47" t="s">
         <v>1056</v>
@@ -23758,59 +23782,59 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>222</v>
+        <v>97</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
         <v>AI</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="F48" t="s">
-        <v>1056</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>CS</v>
+        <v>Other</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="F50" t="s">
-        <v>1055</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="F51" t="s">
         <v>27</v>
@@ -23818,47 +23842,47 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>CS</v>
+        <v>ECO</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="F52" t="s">
-        <v>27</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="F53" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>CS</v>
+        <v>AI</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="F54" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -23870,10 +23894,10 @@
         <v>AI</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="F55" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
@@ -23885,67 +23909,67 @@
         <v>AI</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="F56" t="s">
-        <v>1057</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v xml:space="preserve">FIN </v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F58" t="s">
-        <v>1055</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>263</v>
+        <v>148</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v>BIO</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>148</v>
+        <v>269</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
         <v>AI</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="F60" t="s">
         <v>1057</v>
@@ -23953,17 +23977,17 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v xml:space="preserve">FIN </v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F61" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -23975,67 +23999,67 @@
         <v xml:space="preserve">FIN </v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="F62" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">FIN </v>
+        <v>ECO</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="F63" t="s">
-        <v>1056</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
-        <v>AI</v>
+        <v xml:space="preserve">FIN </v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">FIN </v>
+        <v>CS</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F65" t="s">
-        <v>1054</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" si="0"/>
-        <v>CS</v>
+        <v>AI</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="F66" t="s">
         <v>27</v>
@@ -24043,104 +24067,104 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" si="0"/>
-        <v>AI</v>
+        <f t="shared" ref="B67:B130" si="1">VLOOKUP(A67,$E$2:$F$113,2,FALSE)</f>
+        <v>ECO</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="F67" t="s">
-        <v>27</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
-        <v>291</v>
+        <v>156</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" ref="B68:B131" si="1">VLOOKUP(A68,$E$2:$F$114,2)</f>
-        <v xml:space="preserve">FIN </v>
+        <f t="shared" si="1"/>
+        <v>BIO</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="F68" t="s">
-        <v>1053</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>156</v>
+        <v>297</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v xml:space="preserve">FIN </v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
-        <v>297</v>
+        <v>153</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F70" t="s">
-        <v>1057</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="F71" t="s">
-        <v>27</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="F72" t="s">
-        <v>1055</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
-        <v>310</v>
+        <v>40</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F73" t="s">
         <v>27</v>
@@ -24148,29 +24172,29 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>40</v>
+        <v>316</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="1"/>
-        <v>CS</v>
+        <v xml:space="preserve">FIN </v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="F74" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>316</v>
+        <v>153</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="1"/>
-        <v>CS</v>
+        <v>BUS</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F75" t="s">
         <v>40</v>
@@ -24178,44 +24202,44 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="1"/>
         <v>AI</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>591</v>
+        <v>612</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>27</v>
+        <v>326</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>Other</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="F77" t="s">
-        <v>1055</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="1"/>
         <v>AI</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="F78" t="s">
         <v>40</v>
@@ -24223,179 +24247,179 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>Other</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="F80" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>336</v>
+        <v>222</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="F81" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="F82" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
-        <v>153</v>
+        <v>346</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>Other</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="F83" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
-        <v>346</v>
+        <v>153</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">FIN </v>
+        <v>BUS</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>661</v>
+        <v>687</v>
       </c>
       <c r="F84" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
-        <v>153</v>
+        <v>355</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v xml:space="preserve">FIN </v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="F85" t="s">
-        <v>1055</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="1"/>
         <v>AI</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
-        <v>360</v>
+        <v>153</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="F87" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
-        <v>153</v>
+        <v>366</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="F88" t="s">
-        <v>1056</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="F89" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
-        <v>370</v>
+        <v>159</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>734</v>
+        <v>790</v>
       </c>
       <c r="F90" t="s">
         <v>40</v>
@@ -24403,179 +24427,179 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="1"/>
         <v>AI</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>793</v>
+      <c r="E92" s="7" t="s">
+        <v>802</v>
       </c>
       <c r="F92" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>802</v>
+        <v>CS</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>805</v>
       </c>
       <c r="F93" t="s">
-        <v>1056</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="1"/>
         <v>AI</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>811</v>
+        <v>825</v>
       </c>
       <c r="F95" t="s">
-        <v>27</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="1"/>
         <v>AI</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>825</v>
+        <v>871</v>
       </c>
       <c r="F96" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="3" t="s">
-        <v>27</v>
+        <v>395</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="1"/>
         <v>AI</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>871</v>
+        <v>886</v>
       </c>
       <c r="F97" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
-        <v>395</v>
+        <v>27</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="1"/>
         <v>AI</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="F98" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
-        <v>27</v>
+        <v>402</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="1"/>
         <v>AI</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="F99" t="s">
-        <v>1057</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="3" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="1"/>
         <v>AI</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>904</v>
+        <v>927</v>
       </c>
       <c r="F100" t="s">
-        <v>27</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
-        <v>406</v>
+        <v>153</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="F101" t="s">
-        <v>1053</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="3" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="1"/>
         <v>AI</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>932</v>
+        <v>950</v>
       </c>
       <c r="F102" t="s">
         <v>27</v>
@@ -24583,59 +24607,59 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="3" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v xml:space="preserve">FIN </v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="F103" t="s">
-        <v>27</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
-        <v>112</v>
+        <v>417</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">FIN </v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="F104" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="3" t="s">
-        <v>417</v>
+        <v>222</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">FIN </v>
+        <v>BUS</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>959</v>
+        <v>974</v>
       </c>
       <c r="F105" t="s">
-        <v>1056</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="3" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="F106" t="s">
         <v>40</v>
@@ -24643,136 +24667,130 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="3" t="s">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="1"/>
         <v>CS</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>980</v>
+        <v>988</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="3" t="s">
-        <v>40</v>
+        <v>431</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="1"/>
-        <v>CS</v>
+        <v>BIO</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="F108" t="s">
-        <v>1055</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="3" t="s">
-        <v>431</v>
+        <v>112</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v xml:space="preserve">FIN </v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>992</v>
+        <v>1010</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">FIN </v>
+        <v>BIO</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>1010</v>
+        <v>1026</v>
       </c>
       <c r="F110" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="3" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="F111" t="s">
-        <v>1057</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="3" t="s">
-        <v>40</v>
+        <v>440</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="1"/>
-        <v>CS</v>
+        <v>Other</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="F112" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="3" t="s">
-        <v>440</v>
+        <v>103</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">FIN </v>
+        <v>CS</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="3" t="s">
-        <v>103</v>
+        <v>336</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F114" t="s">
-        <v>1057</v>
+        <v>Other</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="3" t="s">
-        <v>336</v>
+        <v>153</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="1"/>
@@ -24781,25 +24799,25 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="3" t="s">
-        <v>269</v>
+        <v>40</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="3" t="s">
-        <v>40</v>
+        <v>457</v>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="1"/>
-        <v>CS</v>
+        <v xml:space="preserve">FIN </v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="3" t="s">
-        <v>457</v>
+        <v>97</v>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="1"/>
@@ -24808,43 +24826,43 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="3" t="s">
-        <v>97</v>
+        <v>463</v>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="3" t="s">
-        <v>463</v>
+        <v>326</v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>Other</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="3" t="s">
-        <v>326</v>
+        <v>469</v>
       </c>
       <c r="B122" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="3" t="s">
-        <v>469</v>
+        <v>108</v>
       </c>
       <c r="B123" t="str">
         <f t="shared" si="1"/>
-        <v>ECO</v>
+        <v>AI</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="3" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="B124" t="str">
         <f t="shared" si="1"/>
@@ -24853,16 +24871,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B125" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="3" t="s">
-        <v>40</v>
+        <v>481</v>
       </c>
       <c r="B126" t="str">
         <f t="shared" si="1"/>
@@ -24871,56 +24889,56 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="3" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B127" t="str">
         <f t="shared" si="1"/>
-        <v>BUS</v>
+        <v xml:space="preserve">FIN </v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="3" t="s">
-        <v>485</v>
+        <v>40</v>
       </c>
       <c r="B128" t="str">
         <f t="shared" si="1"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="3" t="s">
-        <v>40</v>
+        <v>490</v>
       </c>
       <c r="B129" t="str">
         <f t="shared" si="1"/>
-        <v>CS</v>
+        <v xml:space="preserve">FIN </v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B130" t="str">
         <f t="shared" si="1"/>
-        <v>CS</v>
+        <v>BIO</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="3" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" si="1"/>
-        <v>AI</v>
+        <f t="shared" ref="B131:B194" si="2">VLOOKUP(A131,$E$2:$F$113,2,FALSE)</f>
+        <v>BUS</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="3" t="s">
-        <v>496</v>
+        <v>222</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" ref="B132:B195" si="2">VLOOKUP(A132,$E$2:$F$114,2)</f>
-        <v>AI</v>
+        <f t="shared" si="2"/>
+        <v>BUS</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
@@ -24929,21 +24947,21 @@
       </c>
       <c r="B133" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="3" t="s">
-        <v>222</v>
+        <v>507</v>
       </c>
       <c r="B134" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>Other</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="3" t="s">
-        <v>507</v>
+        <v>269</v>
       </c>
       <c r="B135" t="str">
         <f t="shared" si="2"/>
@@ -24952,7 +24970,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="3" t="s">
-        <v>269</v>
+        <v>27</v>
       </c>
       <c r="B136" t="str">
         <f t="shared" si="2"/>
@@ -24961,43 +24979,43 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B137" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B138" t="str">
         <f t="shared" si="2"/>
-        <v>CS</v>
+        <v>AI</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="3" t="s">
-        <v>27</v>
+        <v>469</v>
       </c>
       <c r="B139" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="3" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="B140" t="str">
         <f t="shared" si="2"/>
-        <v>ECO</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="3" t="s">
-        <v>524</v>
+        <v>27</v>
       </c>
       <c r="B141" t="str">
         <f t="shared" si="2"/>
@@ -25006,16 +25024,16 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="3" t="s">
-        <v>27</v>
+        <v>531</v>
       </c>
       <c r="B142" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="3" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B143" t="str">
         <f t="shared" si="2"/>
@@ -25024,7 +25042,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="3" t="s">
-        <v>534</v>
+        <v>395</v>
       </c>
       <c r="B144" t="str">
         <f t="shared" si="2"/>
@@ -25033,7 +25051,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="3" t="s">
-        <v>395</v>
+        <v>539</v>
       </c>
       <c r="B145" t="str">
         <f t="shared" si="2"/>
@@ -25042,70 +25060,70 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="3" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B146" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">FIN </v>
+        <v>Other</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="3" t="s">
-        <v>542</v>
+        <v>153</v>
       </c>
       <c r="B147" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">FIN </v>
+        <v>BUS</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="3" t="s">
-        <v>153</v>
+        <v>547</v>
       </c>
       <c r="B148" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>BIO</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="3" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B149" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="3" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B150" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v xml:space="preserve">FIN </v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B151" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">FIN </v>
+        <v>AI</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="3" t="s">
-        <v>556</v>
+        <v>60</v>
       </c>
       <c r="B152" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="3" t="s">
-        <v>60</v>
+        <v>561</v>
       </c>
       <c r="B153" t="str">
         <f t="shared" si="2"/>
@@ -25114,7 +25132,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" s="3" t="s">
-        <v>561</v>
+        <v>27</v>
       </c>
       <c r="B154" t="str">
         <f t="shared" si="2"/>
@@ -25132,16 +25150,16 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" s="3" t="s">
-        <v>27</v>
+        <v>469</v>
       </c>
       <c r="B156" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="3" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
       <c r="B157" t="str">
         <f t="shared" si="2"/>
@@ -25150,7 +25168,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="3" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B158" t="str">
         <f t="shared" si="2"/>
@@ -25159,7 +25177,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="3" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B159" t="str">
         <f t="shared" si="2"/>
@@ -25168,7 +25186,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" s="3" t="s">
-        <v>580</v>
+        <v>97</v>
       </c>
       <c r="B160" t="str">
         <f t="shared" si="2"/>
@@ -25177,16 +25195,16 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="3" t="s">
-        <v>97</v>
+        <v>585</v>
       </c>
       <c r="B161" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="3" t="s">
-        <v>585</v>
+        <v>40</v>
       </c>
       <c r="B162" t="str">
         <f t="shared" si="2"/>
@@ -25195,7 +25213,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" s="3" t="s">
-        <v>40</v>
+        <v>591</v>
       </c>
       <c r="B163" t="str">
         <f t="shared" si="2"/>
@@ -25204,16 +25222,16 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" s="3" t="s">
-        <v>591</v>
+        <v>222</v>
       </c>
       <c r="B164" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" s="3" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="B165" t="str">
         <f t="shared" si="2"/>
@@ -25222,16 +25240,16 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" s="3" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B166" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="3" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B167" t="str">
         <f t="shared" si="2"/>
@@ -25240,7 +25258,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" s="3" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="B168" t="str">
         <f t="shared" si="2"/>
@@ -25249,7 +25267,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" s="3" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="B169" t="str">
         <f t="shared" si="2"/>
@@ -25258,61 +25276,61 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" s="3" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="B170" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="3" t="s">
-        <v>153</v>
+        <v>612</v>
       </c>
       <c r="B171" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" s="3" t="s">
-        <v>612</v>
+        <v>27</v>
       </c>
       <c r="B172" t="str">
         <f t="shared" si="2"/>
-        <v>BUS</v>
+        <v>AI</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" s="3" t="s">
-        <v>27</v>
+        <v>618</v>
       </c>
       <c r="B173" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" s="3" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B174" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" s="3" t="s">
-        <v>621</v>
+        <v>524</v>
       </c>
       <c r="B175" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" s="3" t="s">
-        <v>524</v>
+        <v>27</v>
       </c>
       <c r="B176" t="str">
         <f t="shared" si="2"/>
@@ -25321,34 +25339,34 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" s="3" t="s">
-        <v>27</v>
+        <v>632</v>
       </c>
       <c r="B177" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" s="3" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B178" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>BIO</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B179" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" s="3" t="s">
-        <v>632</v>
+        <v>27</v>
       </c>
       <c r="B180" t="str">
         <f t="shared" si="2"/>
@@ -25357,70 +25375,70 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="3" t="s">
-        <v>27</v>
+        <v>646</v>
       </c>
       <c r="B181" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" s="3" t="s">
-        <v>646</v>
+        <v>507</v>
       </c>
       <c r="B182" t="str">
         <f t="shared" si="2"/>
-        <v>CS</v>
+        <v>Other</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" s="3" t="s">
-        <v>507</v>
+        <v>197</v>
       </c>
       <c r="B183" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" s="3" t="s">
-        <v>197</v>
+        <v>654</v>
       </c>
       <c r="B184" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>BIO</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" s="3" t="s">
-        <v>654</v>
+        <v>60</v>
       </c>
       <c r="B185" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A186" s="3" t="s">
-        <v>60</v>
+        <v>661</v>
       </c>
       <c r="B186" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>Other</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" s="3" t="s">
-        <v>661</v>
+        <v>238</v>
       </c>
       <c r="B187" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" s="3" t="s">
-        <v>238</v>
+        <v>524</v>
       </c>
       <c r="B188" t="str">
         <f t="shared" si="2"/>
@@ -25429,16 +25447,16 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" s="3" t="s">
-        <v>524</v>
+        <v>355</v>
       </c>
       <c r="B189" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v xml:space="preserve">FIN </v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A190" s="3" t="s">
-        <v>355</v>
+        <v>27</v>
       </c>
       <c r="B190" t="str">
         <f t="shared" si="2"/>
@@ -25447,11 +25465,11 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" s="3" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B191" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.15">
@@ -25460,48 +25478,48 @@
       </c>
       <c r="B192" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A193" s="3" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="B193" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" s="3" t="s">
-        <v>103</v>
+        <v>687</v>
       </c>
       <c r="B194" t="str">
         <f t="shared" si="2"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" s="3" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B195" t="str">
-        <f t="shared" si="2"/>
-        <v>AI</v>
+        <f t="shared" ref="B195:B258" si="3">VLOOKUP(A195,$E$2:$F$113,2,FALSE)</f>
+        <v>CS</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A196" s="3" t="s">
-        <v>690</v>
+        <v>547</v>
       </c>
       <c r="B196" t="str">
-        <f t="shared" ref="B196:B259" si="3">VLOOKUP(A196,$E$2:$F$114,2)</f>
-        <v>AI</v>
+        <f t="shared" si="3"/>
+        <v>BIO</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A197" s="3" t="s">
-        <v>547</v>
+        <v>27</v>
       </c>
       <c r="B197" t="str">
         <f t="shared" si="3"/>
@@ -25510,29 +25528,29 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" s="3" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B198" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" s="3" t="s">
-        <v>60</v>
+        <v>702</v>
       </c>
       <c r="B199" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>BIO</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A200" s="3" t="s">
-        <v>702</v>
+        <v>60</v>
       </c>
       <c r="B200" t="str">
         <f t="shared" si="3"/>
-        <v>BUS</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.15">
@@ -25541,12 +25559,12 @@
       </c>
       <c r="B201" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A202" s="3" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B202" t="str">
         <f t="shared" si="3"/>
@@ -25555,25 +25573,25 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" s="3" t="s">
-        <v>97</v>
+        <v>714</v>
       </c>
       <c r="B203" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>Other</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A204" s="3" t="s">
-        <v>714</v>
+        <v>524</v>
       </c>
       <c r="B204" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A205" s="3" t="s">
-        <v>524</v>
+        <v>719</v>
       </c>
       <c r="B205" t="str">
         <f t="shared" si="3"/>
@@ -25582,7 +25600,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A206" s="3" t="s">
-        <v>719</v>
+        <v>97</v>
       </c>
       <c r="B206" t="str">
         <f t="shared" si="3"/>
@@ -25591,43 +25609,43 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A207" s="3" t="s">
-        <v>97</v>
+        <v>727</v>
       </c>
       <c r="B207" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" s="3" t="s">
-        <v>727</v>
+        <v>148</v>
       </c>
       <c r="B208" t="str">
         <f t="shared" si="3"/>
-        <v>CS</v>
+        <v>BIO</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A209" s="3" t="s">
-        <v>148</v>
+        <v>734</v>
       </c>
       <c r="B209" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A210" s="3" t="s">
-        <v>734</v>
+        <v>60</v>
       </c>
       <c r="B210" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A211" s="3" t="s">
-        <v>60</v>
+        <v>269</v>
       </c>
       <c r="B211" t="str">
         <f t="shared" si="3"/>
@@ -25636,29 +25654,29 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" s="3" t="s">
-        <v>269</v>
+        <v>366</v>
       </c>
       <c r="B212" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A213" s="3" t="s">
-        <v>366</v>
+        <v>153</v>
       </c>
       <c r="B213" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" s="3" t="s">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="B214" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.15">
@@ -25667,21 +25685,21 @@
       </c>
       <c r="B215" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A216" s="3" t="s">
-        <v>222</v>
+        <v>524</v>
       </c>
       <c r="B216" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A217" s="3" t="s">
-        <v>524</v>
+        <v>97</v>
       </c>
       <c r="B217" t="str">
         <f t="shared" si="3"/>
@@ -25690,16 +25708,16 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A218" s="3" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B218" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A219" s="3" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B219" t="str">
         <f t="shared" si="3"/>
@@ -25708,70 +25726,70 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A220" s="3" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="B220" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A221" s="3" t="s">
-        <v>222</v>
+        <v>524</v>
       </c>
       <c r="B221" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A222" s="3" t="s">
-        <v>524</v>
+        <v>60</v>
       </c>
       <c r="B222" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A223" s="3" t="s">
-        <v>60</v>
+        <v>524</v>
       </c>
       <c r="B223" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A224" s="3" t="s">
-        <v>524</v>
+        <v>222</v>
       </c>
       <c r="B224" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A225" s="3" t="s">
-        <v>222</v>
+        <v>781</v>
       </c>
       <c r="B225" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A226" s="3" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B226" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>BIO</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A227" s="3" t="s">
-        <v>784</v>
+        <v>97</v>
       </c>
       <c r="B227" t="str">
         <f t="shared" si="3"/>
@@ -25780,25 +25798,25 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A228" s="3" t="s">
-        <v>97</v>
+        <v>790</v>
       </c>
       <c r="B228" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A229" s="3" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B229" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>BIO</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A230" s="3" t="s">
-        <v>793</v>
+        <v>97</v>
       </c>
       <c r="B230" t="str">
         <f t="shared" si="3"/>
@@ -25806,53 +25824,53 @@
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A231" s="3" t="s">
-        <v>97</v>
+      <c r="A231" s="7" t="s">
+        <v>802</v>
       </c>
       <c r="B231" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>Other</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A232" s="7" t="s">
-        <v>802</v>
+      <c r="A232" s="3" t="s">
+        <v>805</v>
       </c>
       <c r="B232" t="str">
         <f t="shared" si="3"/>
-        <v>Other</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A233" s="3" t="s">
-        <v>805</v>
+        <v>222</v>
       </c>
       <c r="B233" t="str">
         <f t="shared" si="3"/>
-        <v>CS</v>
+        <v>BUS</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A234" s="3" t="s">
-        <v>222</v>
+        <v>60</v>
       </c>
       <c r="B234" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A235" s="3" t="s">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="B235" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A236" s="3" t="s">
-        <v>222</v>
+        <v>811</v>
       </c>
       <c r="B236" t="str">
         <f t="shared" si="3"/>
@@ -25861,7 +25879,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A237" s="3" t="s">
-        <v>811</v>
+        <v>27</v>
       </c>
       <c r="B237" t="str">
         <f t="shared" si="3"/>
@@ -25879,11 +25897,11 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A239" s="3" t="s">
-        <v>27</v>
+        <v>547</v>
       </c>
       <c r="B239" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>BIO</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.15">
@@ -25892,30 +25910,30 @@
       </c>
       <c r="B240" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>BIO</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A241" s="3" t="s">
-        <v>547</v>
+        <v>825</v>
       </c>
       <c r="B241" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v xml:space="preserve">FIN </v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A242" s="3" t="s">
-        <v>825</v>
+        <v>222</v>
       </c>
       <c r="B242" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">FIN </v>
+        <v>BUS</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A243" s="3" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="B243" t="str">
         <f t="shared" si="3"/>
@@ -25933,16 +25951,16 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A245" s="3" t="s">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="B245" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A246" s="3" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="B246" t="str">
         <f t="shared" si="3"/>
@@ -25951,25 +25969,25 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A247" s="3" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="B247" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v xml:space="preserve">FIN </v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A248" s="3" t="s">
-        <v>112</v>
+        <v>781</v>
       </c>
       <c r="B248" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">FIN </v>
+        <v>ECO</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A249" s="3" t="s">
-        <v>781</v>
+        <v>848</v>
       </c>
       <c r="B249" t="str">
         <f t="shared" si="3"/>
@@ -25978,115 +25996,115 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" s="3" t="s">
-        <v>848</v>
+        <v>153</v>
       </c>
       <c r="B250" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A251" s="3" t="s">
-        <v>153</v>
+        <v>547</v>
       </c>
       <c r="B251" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>BIO</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A252" s="3" t="s">
-        <v>547</v>
+        <v>355</v>
       </c>
       <c r="B252" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v xml:space="preserve">FIN </v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" s="3" t="s">
-        <v>355</v>
+        <v>547</v>
       </c>
       <c r="B253" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>BIO</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A254" s="3" t="s">
-        <v>547</v>
+        <v>865</v>
       </c>
       <c r="B254" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>BIO</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A255" s="3" t="s">
-        <v>865</v>
+        <v>40</v>
       </c>
       <c r="B255" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A256" s="3" t="s">
-        <v>40</v>
+        <v>871</v>
       </c>
       <c r="B256" t="str">
         <f t="shared" si="3"/>
-        <v>CS</v>
+        <v>ECO</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A257" s="3" t="s">
-        <v>871</v>
+        <v>60</v>
       </c>
       <c r="B257" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A258" s="3" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="B258" t="str">
         <f t="shared" si="3"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A259" s="3" t="s">
-        <v>153</v>
+        <v>880</v>
       </c>
       <c r="B259" t="str">
-        <f t="shared" si="3"/>
-        <v>AI</v>
+        <f t="shared" ref="B259:B314" si="4">VLOOKUP(A259,$E$2:$F$113,2,FALSE)</f>
+        <v>BIO</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A260" s="3" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="B260" t="str">
-        <f t="shared" ref="B260:B315" si="4">VLOOKUP(A260,$E$2:$F$114,2)</f>
+        <f t="shared" si="4"/>
         <v>AI</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A261" s="3" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="B261" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v>BIO</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A262" s="3" t="s">
-        <v>886</v>
+        <v>222</v>
       </c>
       <c r="B262" t="str">
         <f t="shared" si="4"/>
@@ -26095,34 +26113,34 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A263" s="3" t="s">
-        <v>222</v>
+        <v>524</v>
       </c>
       <c r="B263" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A264" s="3" t="s">
-        <v>524</v>
+        <v>893</v>
       </c>
       <c r="B264" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v xml:space="preserve">FIN </v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A265" s="3" t="s">
-        <v>893</v>
+        <v>60</v>
       </c>
       <c r="B265" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">FIN </v>
+        <v>CS</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A266" s="3" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B266" t="str">
         <f t="shared" si="4"/>
@@ -26131,7 +26149,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A267" s="3" t="s">
-        <v>97</v>
+        <v>904</v>
       </c>
       <c r="B267" t="str">
         <f t="shared" si="4"/>
@@ -26140,16 +26158,16 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A268" s="3" t="s">
-        <v>904</v>
+        <v>355</v>
       </c>
       <c r="B268" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v xml:space="preserve">FIN </v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A269" s="3" t="s">
-        <v>355</v>
+        <v>912</v>
       </c>
       <c r="B269" t="str">
         <f t="shared" si="4"/>
@@ -26158,7 +26176,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A270" s="3" t="s">
-        <v>912</v>
+        <v>27</v>
       </c>
       <c r="B270" t="str">
         <f t="shared" si="4"/>
@@ -26167,16 +26185,16 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A271" s="3" t="s">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="B271" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" s="3" t="s">
-        <v>222</v>
+        <v>97</v>
       </c>
       <c r="B272" t="str">
         <f t="shared" si="4"/>
@@ -26185,16 +26203,16 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A273" s="3" t="s">
-        <v>97</v>
+        <v>927</v>
       </c>
       <c r="B273" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v>BIO</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A274" s="3" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="B274" t="str">
         <f t="shared" si="4"/>
@@ -26203,7 +26221,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A275" s="3" t="s">
-        <v>932</v>
+        <v>97</v>
       </c>
       <c r="B275" t="str">
         <f t="shared" si="4"/>
@@ -26212,16 +26230,16 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A276" s="3" t="s">
-        <v>97</v>
+        <v>927</v>
       </c>
       <c r="B276" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v>BIO</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A277" s="3" t="s">
-        <v>927</v>
+        <v>883</v>
       </c>
       <c r="B277" t="str">
         <f t="shared" si="4"/>
@@ -26230,70 +26248,70 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A278" s="3" t="s">
-        <v>883</v>
+        <v>547</v>
       </c>
       <c r="B278" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v>BIO</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A279" s="3" t="s">
-        <v>547</v>
+        <v>947</v>
       </c>
       <c r="B279" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v>BIO</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A280" s="3" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B280" t="str">
         <f t="shared" si="4"/>
-        <v>BUS</v>
+        <v>AI</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A281" s="3" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B281" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v>BIO</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A282" s="3" t="s">
-        <v>952</v>
+        <v>781</v>
       </c>
       <c r="B282" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A283" s="3" t="s">
-        <v>781</v>
+        <v>959</v>
       </c>
       <c r="B283" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v>Other</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A284" s="3" t="s">
-        <v>959</v>
+        <v>242</v>
       </c>
       <c r="B284" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A285" s="3" t="s">
-        <v>242</v>
+        <v>97</v>
       </c>
       <c r="B285" t="str">
         <f t="shared" si="4"/>
@@ -26302,25 +26320,25 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A286" s="3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B286" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v xml:space="preserve">FIN </v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A287" s="3" t="s">
-        <v>112</v>
+        <v>927</v>
       </c>
       <c r="B287" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">FIN </v>
+        <v>BIO</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A288" s="3" t="s">
-        <v>927</v>
+        <v>97</v>
       </c>
       <c r="B288" t="str">
         <f t="shared" si="4"/>
@@ -26329,16 +26347,16 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A289" s="3" t="s">
-        <v>97</v>
+        <v>238</v>
       </c>
       <c r="B289" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A290" s="3" t="s">
-        <v>238</v>
+        <v>974</v>
       </c>
       <c r="B290" t="str">
         <f t="shared" si="4"/>
@@ -26347,7 +26365,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A291" s="3" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="B291" t="str">
         <f t="shared" si="4"/>
@@ -26356,52 +26374,52 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A292" s="3" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="B292" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v>BIO</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A293" s="3" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B293" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A294" s="3" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="B294" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v>CS</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A295" s="3" t="s">
-        <v>992</v>
+        <v>336</v>
       </c>
       <c r="B295" t="str">
         <f t="shared" si="4"/>
-        <v>CS</v>
+        <v>Other</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A296" s="3" t="s">
-        <v>336</v>
+        <v>194</v>
       </c>
       <c r="B296" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A297" s="3" t="s">
-        <v>194</v>
+        <v>561</v>
       </c>
       <c r="B297" t="str">
         <f t="shared" si="4"/>
@@ -26410,70 +26428,70 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A298" s="3" t="s">
-        <v>561</v>
+        <v>112</v>
       </c>
       <c r="B298" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v xml:space="preserve">FIN </v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A299" s="3" t="s">
-        <v>112</v>
+        <v>269</v>
       </c>
       <c r="B299" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">FIN </v>
+        <v>AI</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A300" s="3" t="s">
-        <v>269</v>
+        <v>793</v>
       </c>
       <c r="B300" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v>BIO</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A301" s="3" t="s">
-        <v>793</v>
+        <v>1010</v>
       </c>
       <c r="B301" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A302" s="3" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="B302" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A303" s="3" t="s">
-        <v>1014</v>
+        <v>781</v>
       </c>
       <c r="B303" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A304" s="3" t="s">
-        <v>781</v>
+        <v>572</v>
       </c>
       <c r="B304" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v>ECO</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A305" s="3" t="s">
-        <v>572</v>
+        <v>27</v>
       </c>
       <c r="B305" t="str">
         <f t="shared" si="4"/>
@@ -26482,43 +26500,43 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A306" s="3" t="s">
-        <v>27</v>
+        <v>1026</v>
       </c>
       <c r="B306" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v xml:space="preserve">FIN </v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A307" s="3" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="B307" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">FIN </v>
+        <v>AI</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A308" s="3" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="B308" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">FIN </v>
+        <v>CS</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A309" s="3" t="s">
-        <v>1038</v>
+        <v>148</v>
       </c>
       <c r="B309" t="str">
         <f t="shared" si="4"/>
-        <v>CS</v>
+        <v>BIO</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A310" s="3" t="s">
-        <v>148</v>
+        <v>848</v>
       </c>
       <c r="B310" t="str">
         <f t="shared" si="4"/>
@@ -26527,11 +26545,11 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A311" s="3" t="s">
-        <v>848</v>
+        <v>1044</v>
       </c>
       <c r="B311" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v xml:space="preserve">FIN </v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.15">
@@ -26540,34 +26558,25 @@
       </c>
       <c r="B312" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v xml:space="preserve">FIN </v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A313" s="3" t="s">
-        <v>1044</v>
+        <v>893</v>
       </c>
       <c r="B313" t="str">
         <f t="shared" si="4"/>
-        <v>AI</v>
+        <v xml:space="preserve">FIN </v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A314" s="3" t="s">
-        <v>893</v>
+        <v>222</v>
       </c>
       <c r="B314" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">FIN </v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A315" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B315" t="str">
-        <f t="shared" si="4"/>
-        <v>AI</v>
+        <v>BUS</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.15">
@@ -26576,9 +26585,10 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{06AB0209-C746-C542-8D1B-D6FB60815153}"/>
   <hyperlinks>
-    <hyperlink ref="A232" r:id="rId1" xr:uid="{1B0A849B-76D4-284B-B7C0-EAF2E872469C}"/>
-    <hyperlink ref="E93" r:id="rId2" xr:uid="{D1B49EF7-1820-3A4E-91B6-2045A5B14E0E}"/>
+    <hyperlink ref="A231" r:id="rId1" xr:uid="{1B0A849B-76D4-284B-B7C0-EAF2E872469C}"/>
+    <hyperlink ref="E92" r:id="rId2" xr:uid="{D1B49EF7-1820-3A4E-91B6-2045A5B14E0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26586,10 +26596,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D048673-9DB2-3A48-9E40-5AF01A274AA3}">
-  <dimension ref="A3:B11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="281" zoomScaleNormal="281" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26598,71 +26608,157 @@
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <v>87</v>
+      </c>
+      <c r="G2" s="12">
+        <f>F2/$F$9</f>
+        <v>0.27795527156549521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>1058</v>
       </c>
       <c r="B3" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F3">
+        <v>32</v>
+      </c>
+      <c r="G3" s="12">
+        <f t="shared" ref="G3:G8" si="0">F3/$F$9</f>
+        <v>0.10223642172523961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="11">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F4">
+        <v>37</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" si="0"/>
+        <v>0.1182108626198083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>1053</v>
       </c>
       <c r="B5" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>68</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="0"/>
+        <v>0.21725239616613418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>1054</v>
       </c>
       <c r="B6" s="11">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F6">
+        <v>36</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="0"/>
+        <v>0.11501597444089456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="11">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F7">
+        <v>29</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="0"/>
+        <v>9.2651757188498399E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>1055</v>
       </c>
       <c r="B8" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F8">
+        <v>24</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="0"/>
+        <v>7.6677316293929709E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>1057</v>
       </c>
       <c r="B9" s="11">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F9">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>1056</v>
       </c>
       <c r="B10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>1059</v>
       </c>
@@ -26673,4 +26769,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4304C2E7-D592-3F49-8336-73D0C6D5841E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>